--- a/Layout/CustomerOrderSummary.xlsx
+++ b/Layout/CustomerOrderSummary.xlsx
@@ -460,18 +460,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Data" displayName="Data" ref="A1:I2" totalsRowShown="0" headerRowDxfId="4" xr:uid="{41D726F2-778D-4B1C-A5EA-875FED73D050}" mc:Ignorable="xr xr3">
-  <x:autoFilter ref="A1:I2" xr:uid="{41D726F2-778D-4B1C-A5EA-875FED73D050}"/>
-  <x:tableColumns count="9">
-    <x:tableColumn id="1" name="SalesCustomerNo" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+<x:table xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Data" displayName="Data" ref="A1:K2" totalsRowShown="0" headerRowDxfId="4" xr:uid="{41D726F2-778D-4B1C-A5EA-875FED73D050}" mc:Ignorable="xr xr3">
+  <x:autoFilter ref="A1:K2" xr:uid="{41D726F2-778D-4B1C-A5EA-875FED73D050}"/>
+  <x:tableColumns count="11">
+    <x:tableColumn id="1" name="CustomerNo" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
     <x:tableColumn id="2" name="SellToName" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="3" name="SellToCountry" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="4" name="OrderNo" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="5" name="OrderDate" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="6" name="ItemNo" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="7" name="Description" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="8" name="Quantity" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="9" name="Amount" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="3" name="Country" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="4" name="Filter" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="5" name="OrderNo" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="6" name="OrderDate" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="7" name="IncludeLines" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="8" name="ItemNo" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="9" name="Description" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="10" name="Quantity" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="11" name="Amount" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
   </x:tableColumns>
   <x:tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </x:table>
@@ -855,30 +857,36 @@
   <x:sheetData>
     <x:row>
       <x:c r="A1" t="str">
-        <x:v>SalesCustomerNo</x:v>
+        <x:v>CustomerNo</x:v>
       </x:c>
       <x:c r="B1" t="str">
         <x:v>SellToName</x:v>
       </x:c>
       <x:c r="C1" t="str">
-        <x:v>SellToCountry</x:v>
+        <x:v>Country</x:v>
       </x:c>
       <x:c r="D1" t="str">
+        <x:v>Filter</x:v>
+      </x:c>
+      <x:c r="E1" t="str">
         <x:v>OrderNo</x:v>
       </x:c>
-      <x:c r="E1" t="str">
+      <x:c r="F1" t="str">
         <x:v>OrderDate</x:v>
       </x:c>
-      <x:c r="F1" t="str">
+      <x:c r="G1" t="str">
+        <x:v>IncludeLines</x:v>
+      </x:c>
+      <x:c r="H1" t="str">
         <x:v>ItemNo</x:v>
       </x:c>
-      <x:c r="G1" t="str">
+      <x:c r="I1" t="str">
         <x:v>Description</x:v>
       </x:c>
-      <x:c r="H1" t="str">
+      <x:c r="J1" t="str">
         <x:v>Quantity</x:v>
       </x:c>
-      <x:c r="I1" t="str">
+      <x:c r="K1" t="str">
         <x:v>Amount</x:v>
       </x:c>
     </x:row>
@@ -895,19 +903,25 @@
       <x:c r="D2" t="str">
         <x:v/>
       </x:c>
-      <x:c r="E2" s="2">
+      <x:c r="E2" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="F2" s="2">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="F2" t="str">
+      <x:c r="G2" t="str">
+        <x:v>False</x:v>
+      </x:c>
+      <x:c r="H2" t="str">
         <x:v/>
       </x:c>
-      <x:c r="G2" t="str">
+      <x:c r="I2" t="str">
         <x:v/>
       </x:c>
-      <x:c r="H2" s="3" t="n">
+      <x:c r="J2" s="3" t="n">
         <x:v>0.0</x:v>
       </x:c>
-      <x:c r="I2" s="3" t="n">
+      <x:c r="K2" s="3" t="n">
         <x:v>0.0</x:v>
       </x:c>
     </x:row>
